--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>14.52107966666667</v>
+        <v>1.600481666666667</v>
       </c>
       <c r="H2">
-        <v>43.563239</v>
+        <v>4.801445</v>
       </c>
       <c r="I2">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="J2">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.010413</v>
+        <v>2.818892666666667</v>
       </c>
       <c r="N2">
-        <v>0.031239</v>
+        <v>8.456678</v>
       </c>
       <c r="O2">
-        <v>0.003341482647480266</v>
+        <v>0.9725758139465345</v>
       </c>
       <c r="P2">
-        <v>0.003341482647480266</v>
+        <v>0.9725758139465346</v>
       </c>
       <c r="Q2">
-        <v>0.151208002569</v>
+        <v>4.511586033301112</v>
       </c>
       <c r="R2">
-        <v>1.360872023121</v>
+        <v>40.60427429971</v>
       </c>
       <c r="S2">
-        <v>0.0007478221009312915</v>
+        <v>0.01248056841581634</v>
       </c>
       <c r="T2">
-        <v>0.0007478221009312915</v>
+        <v>0.01248056841581634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>14.52107966666667</v>
+        <v>1.600481666666667</v>
       </c>
       <c r="H3">
-        <v>43.563239</v>
+        <v>4.801445</v>
       </c>
       <c r="I3">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="J3">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.818892666666667</v>
+        <v>0.04134966666666667</v>
       </c>
       <c r="N3">
-        <v>8.456678</v>
+        <v>0.124049</v>
       </c>
       <c r="O3">
-        <v>0.9045693777754769</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="P3">
-        <v>0.9045693777754769</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="Q3">
-        <v>40.93336498444911</v>
+        <v>0.06617938342277778</v>
       </c>
       <c r="R3">
-        <v>368.400284860042</v>
+        <v>0.5956144508050001</v>
       </c>
       <c r="S3">
-        <v>0.2024421623246401</v>
+        <v>0.0001830744923022493</v>
       </c>
       <c r="T3">
-        <v>0.2024421623246401</v>
+        <v>0.0001830744923022493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>14.52107966666667</v>
+        <v>1.600481666666667</v>
       </c>
       <c r="H4">
-        <v>43.563239</v>
+        <v>4.801445</v>
       </c>
       <c r="I4">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="J4">
-        <v>0.2237994865827619</v>
+        <v>0.01283248898116485</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.26703</v>
+        <v>0.038136</v>
       </c>
       <c r="N4">
-        <v>0.80109</v>
+        <v>0.114408</v>
       </c>
       <c r="O4">
-        <v>0.08568866910176275</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="P4">
-        <v>0.08568866910176275</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="Q4">
-        <v>3.87756390339</v>
+        <v>0.06103596884</v>
       </c>
       <c r="R4">
-        <v>34.89807513051</v>
+        <v>0.54932371956</v>
       </c>
       <c r="S4">
-        <v>0.01917708015093467</v>
+        <v>0.0001688460730462618</v>
       </c>
       <c r="T4">
-        <v>0.01917708015093467</v>
+        <v>0.0001688460730462618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>14.52107966666667</v>
+        <v>9.234235</v>
       </c>
       <c r="H5">
-        <v>43.563239</v>
+        <v>27.702705</v>
       </c>
       <c r="I5">
-        <v>0.2237994865827619</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="J5">
-        <v>0.2237994865827619</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01994566666666667</v>
+        <v>2.818892666666667</v>
       </c>
       <c r="N5">
-        <v>0.059837</v>
+        <v>8.456678</v>
       </c>
       <c r="O5">
-        <v>0.006400470475280153</v>
+        <v>0.9725758139465345</v>
       </c>
       <c r="P5">
-        <v>0.006400470475280153</v>
+        <v>0.9725758139465346</v>
       </c>
       <c r="Q5">
-        <v>0.2896326146714445</v>
+        <v>26.03031732377667</v>
       </c>
       <c r="R5">
-        <v>2.606693532043</v>
+        <v>234.27285591399</v>
       </c>
       <c r="S5">
-        <v>0.001432422006255824</v>
+        <v>0.07200863595348427</v>
       </c>
       <c r="T5">
-        <v>0.001432422006255824</v>
+        <v>0.07200863595348428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>27.702705</v>
       </c>
       <c r="I6">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="J6">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.010413</v>
+        <v>0.04134966666666667</v>
       </c>
       <c r="N6">
-        <v>0.031239</v>
+        <v>0.124049</v>
       </c>
       <c r="O6">
-        <v>0.003341482647480266</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="P6">
-        <v>0.003341482647480266</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="Q6">
-        <v>0.096156089055</v>
+        <v>0.3818325391716667</v>
       </c>
       <c r="R6">
-        <v>0.8654048014949999</v>
+        <v>3.436492852545</v>
       </c>
       <c r="S6">
-        <v>0.0004755545163797346</v>
+        <v>0.001056277569205517</v>
       </c>
       <c r="T6">
-        <v>0.0004755545163797346</v>
+        <v>0.001056277569205517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>27.702705</v>
       </c>
       <c r="I7">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="J7">
-        <v>0.1423184156704627</v>
+        <v>0.07403909795092109</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.818892666666667</v>
+        <v>0.038136</v>
       </c>
       <c r="N7">
-        <v>8.456678</v>
+        <v>0.114408</v>
       </c>
       <c r="O7">
-        <v>0.9045693777754769</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="P7">
-        <v>0.9045693777754769</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="Q7">
-        <v>26.03031732377667</v>
+        <v>0.3521567859599999</v>
       </c>
       <c r="R7">
-        <v>234.27285591399</v>
+        <v>3.16941107364</v>
       </c>
       <c r="S7">
-        <v>0.1287368807090221</v>
+        <v>0.0009741844282313016</v>
       </c>
       <c r="T7">
-        <v>0.1287368807090221</v>
+        <v>0.0009741844282313019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.234235</v>
+        <v>1.276267</v>
       </c>
       <c r="H8">
-        <v>27.702705</v>
+        <v>3.828801</v>
       </c>
       <c r="I8">
-        <v>0.1423184156704627</v>
+        <v>0.01023297083348303</v>
       </c>
       <c r="J8">
-        <v>0.1423184156704627</v>
+        <v>0.01023297083348304</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.26703</v>
+        <v>2.818892666666667</v>
       </c>
       <c r="N8">
-        <v>0.80109</v>
+        <v>8.456678</v>
       </c>
       <c r="O8">
-        <v>0.08568866910176275</v>
+        <v>0.9725758139465345</v>
       </c>
       <c r="P8">
-        <v>0.08568866910176275</v>
+        <v>0.9725758139465346</v>
       </c>
       <c r="Q8">
-        <v>2.46581777205</v>
+        <v>3.597659687008667</v>
       </c>
       <c r="R8">
-        <v>22.19235994845</v>
+        <v>32.378937183078</v>
       </c>
       <c r="S8">
-        <v>0.0121950756274734</v>
+        <v>0.009952339937465908</v>
       </c>
       <c r="T8">
-        <v>0.0121950756274734</v>
+        <v>0.009952339937465911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.234235</v>
+        <v>1.276267</v>
       </c>
       <c r="H9">
-        <v>27.702705</v>
+        <v>3.828801</v>
       </c>
       <c r="I9">
-        <v>0.1423184156704627</v>
+        <v>0.01023297083348303</v>
       </c>
       <c r="J9">
-        <v>0.1423184156704627</v>
+        <v>0.01023297083348304</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01994566666666667</v>
+        <v>0.04134966666666667</v>
       </c>
       <c r="N9">
-        <v>0.059837</v>
+        <v>0.124049</v>
       </c>
       <c r="O9">
-        <v>0.006400470475280153</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="P9">
-        <v>0.006400470475280153</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="Q9">
-        <v>0.1841829732316667</v>
+        <v>0.05277321502766667</v>
       </c>
       <c r="R9">
-        <v>1.657646759085</v>
+        <v>0.4749589352490001</v>
       </c>
       <c r="S9">
-        <v>0.0009109048175874445</v>
+        <v>0.0001459885095427198</v>
       </c>
       <c r="T9">
-        <v>0.0009109048175874445</v>
+        <v>0.0001459885095427198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9554203333333334</v>
+        <v>1.276267</v>
       </c>
       <c r="H10">
-        <v>2.866261</v>
+        <v>3.828801</v>
       </c>
       <c r="I10">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348303</v>
       </c>
       <c r="J10">
-        <v>0.01472497809936019</v>
+        <v>0.01023297083348304</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.010413</v>
+        <v>0.038136</v>
       </c>
       <c r="N10">
-        <v>0.031239</v>
+        <v>0.114408</v>
       </c>
       <c r="O10">
-        <v>0.003341482647480266</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="P10">
-        <v>0.003341482647480266</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="Q10">
-        <v>0.009948791931000001</v>
+        <v>0.048671718312</v>
       </c>
       <c r="R10">
-        <v>0.08953912737900001</v>
+        <v>0.438045464808</v>
       </c>
       <c r="S10">
-        <v>4.920325880353903E-05</v>
+        <v>0.0001346423864744051</v>
       </c>
       <c r="T10">
-        <v>4.920325880353903E-05</v>
+        <v>0.0001346423864744052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9554203333333334</v>
+        <v>112.6100793333333</v>
       </c>
       <c r="H11">
-        <v>2.866261</v>
+        <v>337.830238</v>
       </c>
       <c r="I11">
-        <v>0.01472497809936019</v>
+        <v>0.902895442234431</v>
       </c>
       <c r="J11">
-        <v>0.01472497809936019</v>
+        <v>0.9028954422344311</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>8.456678</v>
       </c>
       <c r="O11">
-        <v>0.9045693777754769</v>
+        <v>0.9725758139465345</v>
       </c>
       <c r="P11">
-        <v>0.9045693777754769</v>
+        <v>0.9725758139465346</v>
       </c>
       <c r="Q11">
-        <v>2.693227371217556</v>
+        <v>317.4357268254849</v>
       </c>
       <c r="R11">
-        <v>24.239046340958</v>
+        <v>2856.921541429364</v>
       </c>
       <c r="S11">
-        <v>0.01331976427709577</v>
+        <v>0.8781342696397679</v>
       </c>
       <c r="T11">
-        <v>0.01331976427709577</v>
+        <v>0.8781342696397682</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9554203333333334</v>
+        <v>112.6100793333333</v>
       </c>
       <c r="H12">
-        <v>2.866261</v>
+        <v>337.830238</v>
       </c>
       <c r="I12">
-        <v>0.01472497809936019</v>
+        <v>0.902895442234431</v>
       </c>
       <c r="J12">
-        <v>0.01472497809936019</v>
+        <v>0.9028954422344311</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.26703</v>
+        <v>0.04134966666666667</v>
       </c>
       <c r="N12">
-        <v>0.80109</v>
+        <v>0.124049</v>
       </c>
       <c r="O12">
-        <v>0.08568866910176275</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="P12">
-        <v>0.08568866910176275</v>
+        <v>0.01426648349910611</v>
       </c>
       <c r="Q12">
-        <v>0.25512589161</v>
+        <v>4.656389243740223</v>
       </c>
       <c r="R12">
-        <v>2.29613302449</v>
+        <v>41.907503193662</v>
       </c>
       <c r="S12">
-        <v>0.001261763775886779</v>
+        <v>0.01288114292805562</v>
       </c>
       <c r="T12">
-        <v>0.001261763775886779</v>
+        <v>0.01288114292805563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9554203333333334</v>
+        <v>112.6100793333333</v>
       </c>
       <c r="H13">
-        <v>2.866261</v>
+        <v>337.830238</v>
       </c>
       <c r="I13">
-        <v>0.01472497809936019</v>
+        <v>0.902895442234431</v>
       </c>
       <c r="J13">
-        <v>0.01472497809936019</v>
+        <v>0.9028954422344311</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01994566666666667</v>
+        <v>0.038136</v>
       </c>
       <c r="N13">
-        <v>0.059837</v>
+        <v>0.114408</v>
       </c>
       <c r="O13">
-        <v>0.006400470475280153</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="P13">
-        <v>0.006400470475280153</v>
+        <v>0.01315770255435942</v>
       </c>
       <c r="Q13">
-        <v>0.01905649549522222</v>
+        <v>4.294497985455999</v>
       </c>
       <c r="R13">
-        <v>0.171508459457</v>
+        <v>38.650481869104</v>
       </c>
       <c r="S13">
-        <v>9.424678757410177E-05</v>
+        <v>0.01188002966660745</v>
       </c>
       <c r="T13">
-        <v>9.424678757410177E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>40.17359466666667</v>
-      </c>
-      <c r="H14">
-        <v>120.520784</v>
-      </c>
-      <c r="I14">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="J14">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.010413</v>
-      </c>
-      <c r="N14">
-        <v>0.031239</v>
-      </c>
-      <c r="O14">
-        <v>0.003341482647480266</v>
-      </c>
-      <c r="P14">
-        <v>0.003341482647480266</v>
-      </c>
-      <c r="Q14">
-        <v>0.4183276412640001</v>
-      </c>
-      <c r="R14">
-        <v>3.764948771376</v>
-      </c>
-      <c r="S14">
-        <v>0.002068902771365701</v>
-      </c>
-      <c r="T14">
-        <v>0.002068902771365701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>40.17359466666667</v>
-      </c>
-      <c r="H15">
-        <v>120.520784</v>
-      </c>
-      <c r="I15">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="J15">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.818892666666667</v>
-      </c>
-      <c r="N15">
-        <v>8.456678</v>
-      </c>
-      <c r="O15">
-        <v>0.9045693777754769</v>
-      </c>
-      <c r="P15">
-        <v>0.9045693777754769</v>
-      </c>
-      <c r="Q15">
-        <v>113.2450513995058</v>
-      </c>
-      <c r="R15">
-        <v>1019.205462595552</v>
-      </c>
-      <c r="S15">
-        <v>0.5600705704647189</v>
-      </c>
-      <c r="T15">
-        <v>0.5600705704647189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>40.17359466666667</v>
-      </c>
-      <c r="H16">
-        <v>120.520784</v>
-      </c>
-      <c r="I16">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="J16">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.26703</v>
-      </c>
-      <c r="N16">
-        <v>0.80109</v>
-      </c>
-      <c r="O16">
-        <v>0.08568866910176275</v>
-      </c>
-      <c r="P16">
-        <v>0.08568866910176275</v>
-      </c>
-      <c r="Q16">
-        <v>10.72755498384</v>
-      </c>
-      <c r="R16">
-        <v>96.54799485456002</v>
-      </c>
-      <c r="S16">
-        <v>0.05305474954746789</v>
-      </c>
-      <c r="T16">
-        <v>0.05305474954746789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>40.17359466666667</v>
-      </c>
-      <c r="H17">
-        <v>120.520784</v>
-      </c>
-      <c r="I17">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="J17">
-        <v>0.6191571196474153</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01994566666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.059837</v>
-      </c>
-      <c r="O17">
-        <v>0.006400470475280153</v>
-      </c>
-      <c r="P17">
-        <v>0.006400470475280153</v>
-      </c>
-      <c r="Q17">
-        <v>0.8012891280231113</v>
-      </c>
-      <c r="R17">
-        <v>7.211602152208001</v>
-      </c>
-      <c r="S17">
-        <v>0.003962896863862782</v>
-      </c>
-      <c r="T17">
-        <v>0.003962896863862782</v>
+        <v>0.01188002966660745</v>
       </c>
     </row>
   </sheetData>
